--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2097108.851868362</v>
+        <v>-2099106.524881207</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>85.43626608561658</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>112.2268829407219</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>360.1417077785957</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.91766223359118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>195.8686293235221</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>22.35153719005467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>394.9680773239724</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>19.45240097060619</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.8865837051443</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>196.7218456862864</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>376.0104255847223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>144.4888345511685</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.5084196148187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.03135913814459</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>223.1747557935718</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>127.4321567831321</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.35146980185857</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>165.6413368493143</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>276.962675797496</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463175</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522963</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789589</v>
+        <v>80.78193823789518</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.665176003864</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="C2" t="n">
-        <v>825.7026590634521</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D2" t="n">
-        <v>467.4369604567016</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4369604567016</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>467.4369604567016</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2583.788603199311</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2583.788603199311</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2252.72571585574</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1899.957060585626</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="Y2" t="n">
-        <v>1581.265016067985</v>
+        <v>1536.177557778964</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S4" t="n">
-        <v>500.8649647332663</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8649647332663</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6913543878343</v>
+        <v>2045.540398925137</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6913543878343</v>
+        <v>2045.540398925137</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>2045.540398925137</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.829108994408</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.829108994408</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1172.829108994408</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>787.0408563961635</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>780.09535564696</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2677.500201148924</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2346.437313805353</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>1949.568281034341</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>1559.428949058529</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4641,13 +4641,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>494.9102127870965</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>494.9102127870965</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W7" t="n">
-        <v>494.9102127870965</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X7" t="n">
-        <v>494.9102127870965</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2112.324418312743</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C8" t="n">
-        <v>1743.361901372331</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>1743.361901372331</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312743</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4575213834697</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
         <v>1661.954360834046</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.6134626728254</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.712528333286</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>870.7229774352686</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.6134626728254</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,31 +5294,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.141587792752</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>282.5355983135321</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>938.6267056531004</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>683.9422174472136</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550796</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="X16" t="n">
-        <v>503.3281774570622</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y16" t="n">
-        <v>282.5355983135321</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1427.741252113633</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1757.603879777666</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2037.143944996363</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5701,19 +5701,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954965</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5741,19 +5741,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646857</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>796.8212601588119</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="W22" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X22" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2722.801152901741</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3336.69822265863</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6704,10 +6704,10 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619129</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.69837048303</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,49 +7172,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3883.555759916434</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4163.095825135131</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103124</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>15.83804904622875</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>219.9778004203348</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>297.2466435761034</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>85.30006332127834</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231142</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>213.2603911806632</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>148.2747143566559</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.0022427662468</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>199.6230805871084</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>328.3479039351784</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>104.2214374169359</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>115.5623585656773</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.07623373727608</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>130.2154619604833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>63.06259660500558</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>158.8051956154452</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.2331835502362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>120.596015549263</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>9.560322539095012</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-2.933209358745421e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1350885.617004506</v>
+        <v>1350885.617004505</v>
       </c>
     </row>
     <row r="6">
@@ -26317,40 +26317,40 @@
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
+        <v>39102.90597377089</v>
+      </c>
+      <c r="F2" t="n">
         <v>39102.90597377087</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39102.9059737709</v>
       </c>
       <c r="G2" t="n">
         <v>39102.90597377087</v>
       </c>
       <c r="H2" t="n">
-        <v>39102.90597377086</v>
+        <v>39102.90597377089</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321423</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321423</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321423</v>
       </c>
       <c r="L2" t="n">
         <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116909.4528448266</v>
+        <v>116909.4528448267</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26439,13 +26439,13 @@
         <v>44593.39482819119</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
@@ -26454,7 +26454,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752952.5614271401</v>
+        <v>-753165.9734170187</v>
       </c>
       <c r="C6" t="n">
         <v>-207439.8573567197</v>
@@ -26528,16 +26528,16 @@
         <v>-207439.8573567197</v>
       </c>
       <c r="E6" t="n">
-        <v>-600219.0640387126</v>
+        <v>-600316.5231646848</v>
       </c>
       <c r="F6" t="n">
-        <v>-75059.02756181645</v>
+        <v>-75156.48668778862</v>
       </c>
       <c r="G6" t="n">
-        <v>-75059.02756181647</v>
+        <v>-75156.48668778864</v>
       </c>
       <c r="H6" t="n">
-        <v>-75059.02756181647</v>
+        <v>-75156.48668778862</v>
       </c>
       <c r="I6" t="n">
         <v>-155761.9242587149</v>
@@ -26704,22 +26704,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="J2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,22 +26744,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>9.58939289987336</v>
       </c>
       <c r="Y2" t="n">
-        <v>327.3202764224624</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.27690962649677</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>203.3581181989825</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>18.81609269682264</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>231.7717665376831</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>55.39529053683341</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>28.98780970275078</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.919944487539453</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>241.7491041048851</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>166.413487634168</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>469.2355053763591</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>504.340058507628</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>334.5577682773026</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110534</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>462.5180961366875</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>481.4692877546687</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37072,13 +37072,13 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>277.0152755513209</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>406.7164955186331</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
